--- a/Datos/Database by set/Set with text box/Xlsx sets/Ravnica City of Guilds (RAV).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Ravnica City of Guilds (RAV).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A60"/>
+  <dimension ref="A1:A292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,413 +444,2037 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>('Absorb', ['{W}{U}{U}', 'Instant', 'Counter target spell. You gain 3 life.'])</t>
+          <t>('Agrus Kos, Wojek Veteran', ['{3}{R}{W}', 'Legendary Creature — Human Soldier', 'Whenever Agrus Kos, Wojek Veteran attacks, attacking red creatures get +2/+0 and attacking white creatures get +0/+2 until end of turn.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>('Amplifire', ['{2}{R}{R}', 'Creature — Elemental', 'At the beginning of your upkeep, reveal cards from the top of your library until you reveal a creature card. Until your next turn, Amplifire’s base power becomes twice that card’s power and its base toughness becomes twice that card’s toughness. Put the revealed cards on the bottom of your library in a random order.', '1/1'])</t>
+          <t>('Auratouched Mage', ['{5}{W}', 'Creature — Human Wizard', 'When Auratouched Mage enters the battlefield, search your library for an Aura card that could enchant it. If Auratouched Mage is still on the battlefield, put that Aura card onto the battlefield attached to it. Otherwise, reveal the Aura card and put it into your hand. Then shuffle your library.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>('Awaken the Erstwhile', ['{3}{B}{B}', 'Sorcery', 'Each player discards all the cards in their hand, then creates that many 2/2 black Zombie creature tokens.'])</t>
+          <t>('Autochthon Wurm', ['{10}{G}{G}{G}{W}{W}', 'Creature — Wurm', 'Convoke (Your creatures can help cast this spell. Each creature you tap while casting this spell pays for {1} or one mana of that creature’s color.)', 'Trample', '9/14'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>('Bedeck', ['{B/R}{B/R}', 'Instant', 'Target creature gets +3/-3 until end of turn.', 'Bedazzle', '{4}{B}{R}', 'Instant', 'Destroy target nonbasic land. Bedazzle deals 2 damage to target opponent or planeswalker.'])</t>
+          <t>('Barbarian Riftcutter', ['{4}{R}', 'Creature — Human Barbarian', '{R}, Sacrifice Barbarian Riftcutter: Destroy target land.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>('Bedevil', ['{B}{B}{R}', 'Instant', 'Destroy target artifact, creature, or planeswalker.'])</t>
+          <t>('Bathe in Light', ['{1}{W}', 'Instant', 'Radiance — Choose a color. Target creature and each other creature that shares a color with it gain protection from the chosen color until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>('Benthic Biomancer', ['{U}', 'Creature — Merfolk Wizard Mutant', '{1}{U}: Adapt 1. (If this creature has no +1/+1 counters on it, put a +1/+1 counter on it.)', 'Whenever one or more +1/+1 counters are put on Benthic Biomancer, draw a card, then discard a card.', '1/1'])</t>
+          <t>('Belltower Sphinx', ['{4}{U}', 'Creature — Sphinx', 'Flying', 'Whenever a source deals damage to Belltower Sphinx, that source’s controller mills that many cards.', '2/5'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>('Biogenic Ooze', ['{3}{G}{G}', 'Creature — Ooze', 'When Biogenic Ooze enters the battlefield, create a 2/2 green Ooze creature token.', 'At the beginning of your end step, put a +1/+1 counter on each Ooze you control.', '{1}{G}{G}{G}: Create a 2/2 green Ooze creature token.', '2/2'])</t>
+          <t>('Benevolent Ancestor', ['{2}{W}', 'Creature — Spirit', 'Defender (This creature can’t attack.)', '{T}: Prevent the next 1 damage that would be dealt to any target this turn.', '0/4'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>("Biomancer's Familiar", ['{G}{U}', 'Creature — Mutant', 'Activated abilities of creatures you control cost {2} less to activate. This effect can’t reduce the mana in that cost to less than one mana.', '{T}: The next time target creature adapts this turn, it adapts as though it had no +1/+1 counters on it.', '2/2'])</t>
+          <t>('Birds of Paradise', ['{G}', 'Creature — Bird', 'Flying', '{T}: Add one mana of any color.', '0/1'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>('Blood Crypt', ['Land — Swamp Mountain', '({T}: Add {B} or {R}.)', 'As Blood Crypt enters the battlefield, you may pay 2 life. If you don’t, it enters the battlefield tapped.'])</t>
+          <t>('Blazing Archon', ['{6}{W}{W}{W}', 'Creature — Archon', 'Flying', 'Creatures can’t attack you.', '5/6'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>('Breeding Pool', ['Land — Forest Island', '({T}: Add {G} or {U}.)', 'As Breeding Pool enters the battlefield, you may pay 2 life. If you don’t, it enters the battlefield tapped.'])</t>
+          <t>('Blockbuster', ['{3}{R}{R}', 'Enchantment', '{1}{R}, Sacrifice Blockbuster: It deals 3 damage to each tapped creature and each player.'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>('Cindervines', ['{R}{G}', 'Enchantment', 'Whenever an opponent casts a noncreature spell, Cindervines deals 1 damage to that player.', '{1}, Sacrifice Cindervines: Destroy target artifact or enchantment. Cindervines deals 2 damage to that permanent’s controller.'])</t>
+          <t>('Bloodbond March', ['{2}{B}{G}', 'Enchantment', 'Whenever a player casts a creature spell, each player returns all cards with the same name as that spell from their graveyard to the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>('Deputy of Detention', ['{1}{W}{U}', 'Creature — Vedalken Wizard', 'When Deputy of Detention enters the battlefield, exile target nonland permanent an opponent controls and all other nonland permanents that player controls with the same name as that permanent until Deputy of Detention leaves the battlefield.', '1/3'])</t>
+          <t>('Blood Funnel', ['{1}{B}', 'Enchantment', 'Noncreature spells you cast cost {2} less to cast.', 'Whenever you cast a noncreature spell, counter that spell unless you sacrifice a creature.'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>('Electrodominance', ['{X}{R}{R}', 'Instant', 'Electrodominance deals X damage to any target. You may cast a spell with converted mana cost X or less from your hand without paying its mana cost.'])</t>
+          <t>('Bloodletter Quill', ['{3}', 'Artifact', '{2}, {T}, Put a blood counter on Bloodletter Quill: Draw a card, then you lose 1 life for each blood counter on Bloodletter Quill.', '{U}{B}: Remove a blood counter from Bloodletter Quill.'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>('Emergency Powers', ['{5}{W}{U}', 'Instant', 'Each player shuffles their hand and graveyard into their library, then draws seven cards. Exile Emergency Powers.', 'Addendum — If you cast this spell during your main phase, you may put a permanent card with converted mana cost 7 or less from your hand onto the battlefield.'])</t>
+          <t>('Boros Fury-Shield', ['{2}{W}', 'Instant', 'Prevent all combat damage that would be dealt by target attacking or blocking creature this turn. If {R} was spent to cast this spell, Boros Fury-Shield deals damage to that creature’s controller equal to the creature’s power.'])</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>('End-Raze Forerunners', ['{5}{G}{G}{G}', 'Creature — Boar', 'Vigilance, trample, haste', 'When End-Raze Forerunners enters the battlefield, other creatures you control get +2/+2 and gain vigilance and trample until end of turn.', '7/7'])</t>
+          <t>('Boros Garrison', ['Land', 'Boros Garrison enters the battlefield tapped.', 'When Boros Garrison enters the battlefield, return a land you control to its owner’s hand.', '{T}: Add {R}{W}.'])</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>('Ethereal Absolution', ['{4}{W}{B}', 'Enchantment', 'Creatures you control get +1/+1.', 'Creatures your opponents control get -1/-1.', '{2}{W}{B}: Exile target card from an opponent’s graveyard. If it was a creature card, you create a 1/1 white and black Spirit creature token with flying.'])</t>
+          <t>('Boros Guildmage', ['{R/W}{R/W}', 'Creature — Human Wizard', '{1}{R}: Target creature gains haste until end of turn.', '{1}{W}: Target creature gains first strike until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>('Font of Agonies', ['{B}', 'Enchantment', 'Whenever you pay life, put that many blood counters on Font of Agonies.', '{1}{B}, Remove four blood counters from Font of Agonies: Destroy target creature.'])</t>
+          <t>('Boros Recruit', ['{R/W}', 'Creature — Goblin Soldier', '({R/W} can be paid with either {R} or {W}.)', 'First strike', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>('Gate Colossus', ['{8}', 'Artifact Creature — Construct', 'This spell costs {1} less to cast for each Gate you control.', 'Gate Colossus can’t be blocked by creatures with power 2 or less.', 'Whenever a Gate enters the battlefield under your control, you may put Gate Colossus from your graveyard on top of your library.', '8/8'])</t>
+          <t>('Boros Signet', ['{2}', 'Artifact', '{1}, {T}: Add {R}{W}.'])</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>('Godless Shrine', ['Land — Plains Swamp', '({T}: Add {W} or {B}.)', 'As Godless Shrine enters the battlefield, you may pay 2 life. If you don’t, it enters the battlefield tapped.'])</t>
+          <t>('Boros Swiftblade', ['{R}{W}', 'Creature — Human Soldier', 'Double strike', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>('Growth-Chamber Guardian', ['{1}{G}', 'Creature — Elf Crab Warrior', '{2}{G}: Adapt 2. (If this creature has no +1/+1 counters on it, put two +1/+1 counters on it.)', 'Whenever one or more +1/+1 counters are put on Growth-Chamber Guardian, you may search your library for a card named Growth-Chamber Guardian, reveal it, put it into your hand, then shuffle your library.', '2/2'])</t>
+          <t>('Bottled Cloister', ['{4}', 'Artifact', 'At the beginning of each opponent’s upkeep, exile all cards from your hand face down.', 'At the beginning of your upkeep, return all cards you own exiled with Bottled Cloister to your hand, then draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>('Growth Spiral', ['{G}{U}', 'Instant', 'Draw a card. You may put a land card from your hand onto the battlefield.'])</t>
+          <t>('Brainspoil', ['{3}{B}{B}', 'Sorcery', 'Destroy target creature that isn’t enchanted. It can’t be regenerated.', 'Transmute {1}{B}{B} ({1}{B}{B}, Discard this card: Search your library for a card with the same converted mana cost as this card, reveal it, and put it into your hand. Then shuffle your library. Transmute only as a sorcery.)'])</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>('Gruul Spellbreaker', ['{1}{R}{G}', 'Creature — Ogre Warrior', 'Riot (This creature enters the battlefield with your choice of a +1/+1 counter or haste.)', 'Trample', 'As long as it’s your turn, you and Gruul Spellbreaker have hexproof.', '3/3'])</t>
+          <t>('Bramble Elemental', ['{3}{G}{G}', 'Creature — Elemental', 'Whenever an Aura becomes attached to Bramble Elemental, create two 1/1 green Saproling creature tokens.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>('Guardian Project', ['{3}{G}', 'Enchantment', 'Whenever a nontoken creature enters the battlefield under your control, if it doesn’t have the same name as another creature you control or a creature card in your graveyard, draw a card.'])</t>
+          <t>('Breath of Fury', ['{2}{R}{R}', 'Enchantment — Aura', 'Enchant creature you control', 'When enchanted creature deals combat damage to a player, sacrifice it and attach Breath of Fury to a creature you control. If you do, untap all creatures you control and after this phase, there is an additional combat phase.'])</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>('Gutterbones', ['{B}', 'Creature — Skeleton Warrior', 'Gutterbones enters the battlefield tapped.', '{1}{B}: Return Gutterbones from your graveyard to your hand. Activate this ability only during your turn and only if an opponent lost life this turn.', '2/1'])</t>
+          <t>('Brightflame', ['{X}{R}{R}{W}{W}', 'Sorcery', 'Radiance — Brightflame deals X damage to target creature and each other creature that shares a color with it. You gain life equal to the damage dealt this way.'])</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>('Hallowed Fountain', ['Land — Plains Island', '({T}: Add {W} or {U}.)', 'As Hallowed Fountain enters the battlefield, you may pay 2 life. If you don’t, it enters the battlefield tapped.'])</t>
+          <t>('Caregiver', ['{W}', 'Creature — Human Cleric', '{W}, Sacrifice a creature: Prevent the next 1 damage that would be dealt to any target this turn.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>('Hero of Precinct One', ['{1}{W}', 'Creature — Human Warrior', 'Whenever you cast a multicolored spell, create a 1/1 white Human creature token.', '2/2'])</t>
+          <t>('Carrion Howler', ['{3}{B}', 'Creature — Zombie Wolf', 'Pay 1 life: Carrion Howler gets +2/-1 until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>('Hydroid Krasis', ['{X}{G}{U}', 'Creature — Jellyfish Hydra Beast', 'When you cast this spell, you gain half X life and draw half X cards. Round down each time.', 'Flying, trample', 'Hydroid Krasis enters the battlefield with X +1/+1 counters on it.', '0/0'])</t>
+          <t>('Carven Caryatid', ['{1}{G}{G}', 'Creature — Spirit', 'Defender (This creature can’t attack.)', 'When Carven Caryatid enters the battlefield, draw a card.', '2/5'])</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>('Immolation Shaman', ['{1}{R}', 'Creature — Viashino Shaman', 'Whenever an opponent activates an ability of an artifact, creature, or land that isn’t a mana ability, Immolation Shaman deals 1 damage to that player.', '{3}{R}{R}: Immolation Shaman gets +3/+3 and gains menace until end of turn.', '1/3'])</t>
+          <t>('Centaur Safeguard', ['{2}{G/W}', 'Creature — Centaur Warrior', '({G/W} can be paid with either {G} or {W}.)', 'When Centaur Safeguard dies, you may gain 3 life.', '3/1'])</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>('Incubation Druid', ['{1}{G}', 'Creature — Elf Druid', '{T}: Add one mana of any type that a land you control could produce. If Incubation Druid has a +1/+1 counter on it, add three mana of that type instead.', '{3}{G}{G}: Adapt 3. (If this creature has no +1/+1 counters on it, put three +1/+1 counters on it.)', '0/2'])</t>
+          <t>('Cerulean Sphinx', ['{4}{U}{U}', 'Creature — Sphinx', 'Flying', '{U}: Cerulean Sphinx’s owner shuffles it into their library.', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>('Judith, the Scourge Diva', ['{1}{B}{R}', 'Legendary Creature — Human Shaman', 'Other creatures you control get +1/+0.', 'Whenever a nontoken creature you control dies, Judith, the Scourge Diva deals 1 damage to any target.', '2/2'])</t>
+          <t>('Chant of Vitu-Ghazi', ['{6}{W}{W}', 'Instant', 'Convoke (Your creatures can help cast this spell. Each creature you tap while casting this spell pays for {1} or one mana of that creature’s color.)', 'Prevent all damage that would be dealt by creatures this turn. You gain life equal to the damage prevented this way.'])</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>('Kaya, Orzhov Usurper', ['{1}{W}{B}', 'Legendary Planeswalker — Kaya', '+1: Exile up to two target cards from a single graveyard. You gain 2 life if at least one creature card was exiled this way.', '−1: Exile target nonland permanent with converted mana cost 1 or less.', '−5: Kaya, Orzhov Usurper deals damage to target player equal to the number of cards that player owns in exile and you gain that much life.', 'Loyalty: 3'])</t>
+          <t>('Char', ['{2}{R}', 'Instant', 'Char deals 4 damage to any target and 2 damage to you.'])</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>("Kaya's Wrath", ['{W}{W}{B}{B}', 'Sorcery', 'Destroy all creatures. You gain life equal to the number of creatures you controlled that were destroyed this way.'])</t>
+          <t>('Chord of Calling', ['{X}{G}{G}{G}', 'Instant', 'Convoke (Your creatures can help cast this spell. Each creature you tap while casting this spell pays for {1} or one mana of that creature’s color.)', 'Search your library for a creature card with converted mana cost X or less and put it onto the battlefield. Then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>('Lavinia, Azorius Renegade', ['{W}{U}', 'Legendary Creature — Human Soldier', 'Each opponent can’t cast noncreature spells with converted mana cost greater than the number of lands that player controls.', 'Whenever an opponent casts a spell, if no mana was spent to cast it, counter that spell.', '2/2'])</t>
+          <t>('Chorus of the Conclave', ['{4}{G}{G}{W}{W}', 'Legendary Creature — Dryad', 'Forestwalk (This creature can’t be blocked as long as defending player controls a Forest.)', 'As an additional cost to cast creature spells, you may pay any amount of mana. If you do, that creature enters the battlefield with that many additional +1/+1 counters on it.', '3/8'])</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>('Light Up the Stage', ['{2}{R}', 'Sorcery', 'Spectacle {R} (You may cast this spell for its spectacle cost rather than its mana cost if an opponent lost life this turn.)', 'Exile the top two cards of your library. Until the end of your next turn, you may play those cards.'])</t>
+          <t>('Circu, Dimir Lobotomist', ['{2}{U}{B}', 'Legendary Creature — Human Wizard', 'Whenever you cast a blue spell, exile the top card of target player’s library.', 'Whenever you cast a black spell, exile the top card of target player’s library.', 'Your opponents can’t cast spells with the same name as a card exiled with Circu, Dimir Lobotomist.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>('Lumbering Battlement', ['{4}{W}', 'Creature — Beast', 'Vigilance', 'When Lumbering Battlement enters the battlefield, exile any number of other nontoken creatures you control until it leaves the battlefield.', 'Lumbering Battlement gets +2/+2 for each card exiled with it.', '4/5'])</t>
+          <t>('Civic Wayfinder', ['{2}{G}', 'Creature — Elf Druid Warrior', 'When Civic Wayfinder enters the battlefield, you may search your library for a basic land card, reveal it, and put it into your hand. If you do, shuffle your library.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>('Mass Manipulation', ['{X}{X}{U}{U}{U}{U}', 'Sorcery', 'Gain control of X target creatures and/or planeswalkers.'])</t>
+          <t>('Cleansing Beam', ['{4}{R}', 'Instant', 'Radiance — Cleansing Beam deals 2 damage to target creature and each other creature that shares a color with it.'])</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>('Mirror March', ['{5}{R}', 'Enchantment', 'Whenever a nontoken creature enters the battlefield under your control, flip a coin until you lose a flip. For each flip you won, create a token that’s a copy of that creature. Those tokens gain haste. Exile them at the beginning of the next end step.'])</t>
+          <t>('Clinging Darkness', ['{1}{B}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets -4/-1.'])</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>('Mortify', ['{1}{W}{B}', 'Instant', 'Destroy target creature or enchantment.'])</t>
+          <t>('Cloudstone Curio', ['{3}', 'Artifact', 'Whenever a nonartifact permanent enters the battlefield under your control, you may return another permanent you control that shares a permanent type with it to its owner’s hand.'])</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>('Nikya of the Old Ways', ['{3}{R}{G}', 'Legendary Creature — Centaur Druid', 'You can’t cast noncreature spells.', 'Whenever you tap a land for mana, add one mana of any type that land produced.', '5/5'])</t>
+          <t>('Clutch of the Undercity', ['{1}{U}{U}{B}', 'Instant', 'Return target permanent to its owner’s hand. Its controller loses 3 life.', 'Transmute {1}{U}{B} ({1}{U}{B}, Discard this card: Search your library for a card with the same converted mana cost as this card, reveal it, and put it into your hand. Then shuffle your library. Transmute only as a sorcery.)'])</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>('Plaza of Harmony', ['Land', 'When Plaza of Harmony enters the battlefield, if you control two or more Gates, you gain 3 life.', '{T}: Add {C}.', '{T}: Add one mana of any type that a Gate you control could produce.'])</t>
+          <t>('Coalhauler Swine', ['{4}{R}{R}', 'Creature — Boar Beast', 'Whenever Coalhauler Swine is dealt damage, it deals that much damage to each player.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>('Precognitive Perception', ['{3}{U}{U}', 'Instant', 'Draw three cards.', 'Addendum — If you cast this spell during your main phase, instead scry 3, then draw three cards.'])</t>
+          <t>('Compulsive Research', ['{2}{U}', 'Sorcery', 'Target player draws three cards. Then that player discards two cards unless they discard a land card.'])</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>('Priest of Forgotten Gods', ['{1}{B}', 'Creature — Human Cleric', '{T}, Sacrifice two other creatures: Any number of target players each lose 2 life and sacrifice a creature. You add {B}{B} and draw a card.', '1/2'])</t>
+          <t>('Concerted Effort', ['{2}{W}{W}', 'Enchantment', 'At the beginning of each upkeep, creatures you control gain flying until end of turn if a creature you control has flying. The same is true for fear, first strike, double strike, landwalk, protection, trample, and vigilance.'])</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>('Rakdos Firewheeler', ['{B}{B}{R}{R}', 'Creature — Human Rogue', 'When Rakdos Firewheeler enters the battlefield, it deals 2 damage to target opponent and 2 damage to up to one target creature or planeswalker.', '4/3'])</t>
+          <t>('Conclave Equenaut', ['{4}{W}{W}', 'Creature — Human Soldier', 'Convoke (Your creatures can help cast this spell. Each creature you tap while casting this spell pays for {1} or one mana of that creature’s color.)', 'Flying', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>('Rakdos, the Showstopper', ['{4}{B}{R}', 'Legendary Creature — Demon', 'Flying, trample', 'When Rakdos, the Showstopper enters the battlefield, flip a coin for each creature that isn’t a Demon, Devil, or Imp. Destroy each creature whose coin comes up tails.', '6/6'])</t>
+          <t>('Conclave Phalanx', ['{4}{W}', 'Creature — Human Soldier', 'Convoke (Your creatures can help cast this spell. Each creature you tap while casting this spell pays for {1} or one mana of that creature’s color.)', 'When Conclave Phalanx enters the battlefield, you gain 1 life for each creature you control.', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>('Rampage of the Clans', ['{3}{G}', 'Instant', 'Destroy all artifacts and enchantments. For each permanent destroyed this way, its controller creates a 3/3 green Centaur creature token.'])</t>
+          <t>("Conclave's Blessing", ['{3}{W}', 'Enchantment — Aura', 'Convoke (Your creatures can help cast this spell. Each creature you tap while casting this spell pays for {1} or one mana of that creature’s color.)', 'Enchant creature', 'Enchanted creature gets +0/+2 for each other creature you control.'])</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>('Ravager Wurm', ['{3}{R}{G}{G}', 'Creature — Wurm', 'Riot (This creature enters the battlefield with your choice of a +1/+1 counter or haste.)', 'When Ravager Wurm enters the battlefield, choose up to one —', '• Ravager Wurm fights target creature you don’t control.', '• Destroy target land with an activated ability that isn’t a mana ability.', '4/5'])</t>
+          <t>('Congregation at Dawn', ['{G}{G}{W}', 'Instant', 'Search your library for up to three creature cards and reveal them. Shuffle your library, then put those cards on top of it in any order.'])</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>('Rix Maadi Reveler', ['{1}{R}', 'Creature — Human Shaman', 'Spectacle {2}{B}{R} (You may cast this spell for its spectacle cost rather than its mana cost if an opponent lost life this turn.)', 'When Rix Maadi Reveler enters the battlefield, discard a card, then draw a card. If Rix Maadi Reveler’s spectacle cost was paid, instead discard your hand, then draw three cards.', '2/2'])</t>
+          <t>('Consult the Necrosages', ['{1}{U}{B}', 'Sorcery', 'Choose one —', '• Target player draws two cards.', '• Target player discards two cards.'])</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>('Seraph of the Scales', ['{2}{W}{B}', 'Creature — Angel', 'Flying', '{W}: Seraph of the Scales gains vigilance until end of turn.', '{B}: Seraph of the Scales gains deathtouch until end of turn.', 'Afterlife 2 (When this creature dies, create two 1/1 white and black Spirit creature tokens with flying.)', '4/3'])</t>
+          <t>('Convolute', ['{2}{U}', 'Instant', 'Counter target spell unless its controller pays {4}.'])</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>('Simic Ascendancy', ['{G}{U}', 'Enchantment', '{1}{G}{U}: Put a +1/+1 counter on target creature you control.', 'Whenever one or more +1/+1 counters are put on a creature you control, put that many growth counters on Simic Ascendancy.', 'At the beginning of your upkeep, if Simic Ascendancy has twenty or more growth counters on it, you win the game.'])</t>
+          <t>('Copy Enchantment', ['{2}{U}', 'Enchantment', 'You may have Copy Enchantment enter the battlefield as a copy of any enchantment on the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>('Skarrgan Hellkite', ['{3}{R}{R}', 'Creature — Dragon', 'Riot (This creature enters the battlefield with your choice of a +1/+1 counter or haste.)', 'Flying', '{3}{R}: Skarrgan Hellkite deals 2 damage divided as you choose among one or two targets. Activate this ability only if Skarrgan Hellkite has a +1/+1 counter on it.', '4/4'])</t>
+          <t>('Courier Hawk', ['{1}{W}', 'Creature — Bird', 'Flying, vigilance', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>('Smothering Tithe', ['{3}{W}', 'Enchantment', 'Whenever an opponent draws a card, that player may pay {2}. If the player doesn’t, you create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
+          <t>('Crown of Convergence', ['{2}', 'Artifact', 'Play with the top card of your library revealed.', 'As long as the top card of your library is a creature card, creatures you control that share a color with that card get +1/+1.', '{G}{W}: Put the top card of your library on the bottom of your library.'])</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>('Spawn of Mayhem', ['{2}{B}{B}', 'Creature — Demon', 'Spectacle {1}{B}{B} (You may cast this spell for its spectacle cost rather than its mana cost if an opponent lost life this turn.)', 'Flying, trample', 'At the beginning of your upkeep, Spawn of Mayhem deals 1 damage to each player. Then if you have 10 or less life, put a +1/+1 counter on Spawn of Mayhem.', '4/4'])</t>
+          <t>('Cyclopean Snare', ['{2}', 'Artifact', '{3}, {T}: Tap target creature, then return Cyclopean Snare to its owner’s hand.'])</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>('Sphinx of Foresight', ['{2}{U}{U}', 'Creature — Sphinx', 'You may reveal this card from your opening hand. If you do, scry 3 at the beginning of your first upkeep.', 'Flying', 'At the beginning of your upkeep, scry 1.', '4/4'])</t>
+          <t>('Darkblast', ['{B}', 'Instant', 'Target creature gets -1/-1 until end of turn.', 'Dredge 3 (If you would draw a card, you may mill three cards instead. If you do, return this card from your graveyard to your hand.)'])</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>('Stomping Ground', ['Land — Mountain Forest', '({T}: Add {R} or {G}.)', 'As Stomping Ground enters the battlefield, you may pay 2 life. If you don’t, it enters the battlefield tapped.'])</t>
+          <t>('Dark Confidant', ['{1}{B}', 'Creature — Human Wizard', 'At the beginning of your upkeep, reveal the top card of your library and put that card into your hand. You lose life equal to its converted mana cost.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>('Teysa Karlov', ['{2}{W}{B}', 'Legendary Creature — Human Advisor', 'If a creature dying causes a triggered ability of a permanent you control to trigger, that ability triggers an additional time.', 'Creature tokens you control have vigilance and lifelink.', '2/4'])</t>
+          <t>('Dark Heart of the Wood', ['{B}{G}', 'Enchantment', 'Sacrifice a Forest: You gain 3 life.'])</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>('Theater of Horrors', ['{1}{B}{R}', 'Enchantment', 'At the beginning of your upkeep, exile the top card of your library.', 'During your turn, if an opponent lost life this turn, you may play lands and cast spells from among cards exiled with Theater of Horrors.', '{3}{R}: Theater of Horrors deals 1 damage to target opponent or planeswalker.'])</t>
+          <t>('Devouring Light', ['{1}{W}{W}', 'Instant', 'Convoke (Your creatures can help cast this spell. Each creature you tap while casting this spell pays for {1} or one mana of that creature’s color.)', 'Exile target attacking or blocking creature.'])</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>('Tithe Taker', ['{1}{W}', 'Creature — Human Soldier', 'During your turn, spells your opponents cast cost {1} more to cast and abilities your opponents activate cost {1} more to activate unless they’re mana abilities.', 'Afterlife 1 (When this creature dies, create a 1/1 white and black Spirit creature token with flying.)', '2/1'])</t>
+          <t>('Dimir Aqueduct', ['Land', 'Dimir Aqueduct enters the battlefield tapped.', 'When Dimir Aqueduct enters the battlefield, return a land you control to its owner’s hand.', '{T}: Add {U}{B}.'])</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>('Unbreakable Formation', ['{2}{W}', 'Instant', 'Creatures you control gain indestructible until end of turn.', 'Addendum — If you cast this spell during your main phase, put a +1/+1 counter on each of those creatures and they gain vigilance until end of turn.'])</t>
+          <t>('Dimir Cutpurse', ['{1}{U}{B}', 'Creature — Spirit', 'Whenever Dimir Cutpurse deals combat damage to a player, that player discards a card and you draw a card.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>('Zegana, Utopian Speaker', ['{2}{G}{U}', 'Legendary Creature — Merfolk Wizard', 'When Zegana, Utopian Speaker enters the battlefield, if you control another creature with a +1/+1 counter on it, draw a card.', '{4}{G}{U}: Adapt 4. (If this creature has no +1/+1 counters on it, put four +1/+1 counters on it.)', 'Each creature you control with a +1/+1 counter on it has trample.', '4/4'])</t>
+          <t>('Dimir Doppelganger', ['{1}{U}{B}', 'Creature — Shapeshifter', '{1}{U}{B}: Exile target creature card from a graveyard. Dimir Doppelganger becomes a copy of that card, except it has this ability.', '0/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>('Dimir Guildmage', ['{U/B}{U/B}', 'Creature — Human Wizard', '({U/B} can be paid with either {U} or {B}.)', '{3}{U}: Target player draws a card. Activate this ability only any time you could cast a sorcery.', '{3}{B}: Target player discards a card. Activate this ability only any time you could cast a sorcery.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>('Dimir House Guard', ['{3}{B}', 'Creature — Skeleton', 'Fear (This creature can’t be blocked except by artifact creatures and/or black creatures.)', 'Sacrifice a creature: Regenerate Dimir House Guard.', 'Transmute {1}{B}{B} ({1}{B}{B}, Discard this card: Search your library for a card with the same converted mana cost as this card, reveal it, and put it into your hand. Then shuffle your library. Transmute only as a sorcery.)', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>('Dimir Infiltrator', ['{U}{B}', 'Creature — Spirit', 'Dimir Infiltrator can’t be blocked.', 'Transmute {1}{U}{B} ({1}{U}{B}, Discard this card: Search your library for a card with the same converted mana cost as this card, reveal it, and put it into your hand. Then shuffle your library. Transmute only as a sorcery.)', '1/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>('Dimir Machinations', ['{2}{B}', 'Sorcery', 'Look at the top three cards of target player’s library. Exile any number of those cards, then put the rest back in any order.', 'Transmute {1}{B}{B} ({1}{B}{B}, Discard this card: Search your library for a card with the same converted mana cost as this card, reveal it, and put it into your hand. Then shuffle your library. Transmute only as a sorcery.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>('Dimir Signet', ['{2}', 'Artifact', '{1}, {T}: Add {U}{B}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>('Disembowel', ['{X}{B}', 'Instant', 'Destroy target creature with converted mana cost X.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>('Divebomber Griffin', ['{3}{W}{W}', 'Creature — Griffin', 'Flying', '{T}, Sacrifice Divebomber Griffin: It deals 3 damage to target attacking or blocking creature.', '3/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>('Dizzy Spell', ['{U}', 'Instant', 'Target creature gets -3/-0 until end of turn.', 'Transmute {1}{U}{U} ({1}{U}{U}, Discard this card: Search your library for a card with the same converted mana cost as this card, reveal it, and put it into your hand. Then shuffle your library. Transmute only as a sorcery.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>('Dogpile', ['{3}{R}', 'Instant', 'Dogpile deals damage to any target equal to the number of attacking creatures you control.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>('Doubling Season', ['{4}{G}', 'Enchantment', 'If an effect would create one or more tokens under your control, it creates twice that many of those tokens instead.', 'If an effect would put one or more counters on a permanent you control, it puts twice that many of those counters on that permanent instead.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>('Dowsing Shaman', ['{4}{G}', 'Creature — Centaur Shaman', '{2}{G}, {T}: Return target enchantment card from your graveyard to your hand.', '3/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>('Drake Familiar', ['{1}{U}', 'Creature — Drake', 'Flying', 'When Drake Familiar enters the battlefield, sacrifice it unless you return an enchantment to its owner’s hand.', '2/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>('Dream Leash', ['{3}{U}{U}', 'Enchantment — Aura', 'Enchant permanent', 'You can’t choose an untapped permanent as this spell’s target as you cast it.', 'You control enchanted permanent.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>('Drift of Phantasms', ['{2}{U}', 'Creature — Spirit', 'Defender (This creature can’t attack.)', 'Flying', 'Transmute {1}{U}{U} ({1}{U}{U}, Discard this card: Search your library for a card with the same converted mana cost as this card, reveal it, and put it into your hand. Then shuffle your library. Transmute only as a sorcery.)', '0/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>('Dromad Purebred', ['{4}{W}', 'Creature — Camel Beast', 'Whenever Dromad Purebred is dealt damage, you gain 1 life.', '1/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>('Drooling Groodion', ['{3}{B}{B}{G}', 'Creature — Beast', '{2}{B}{G}, Sacrifice a creature: Target creature gets +2/+2 until end of turn. Another target creature gets -2/-2 until end of turn.', '4/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>("Dryad's Caress", ['{4}{G}{G}', 'Instant', 'You gain 1 life for each creature on the battlefield. If {W} was spent to cast this spell, untap all creatures you control.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>('Duskmantle, House of Shadow', ['Land', '{T}: Add {C}.', '{U}{B}, {T}: Target player mills a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>('Elves of Deep Shadow', ['{G}', 'Creature — Elf Druid', '{T}: Add {B}. Elves of Deep Shadow deals 1 damage to you.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>('Elvish Skysweeper', ['{G}', 'Creature — Elf Warrior', '{4}{G}, Sacrifice a creature: Destroy target creature with flying.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>('Empty the Catacombs', ['{3}{B}', 'Sorcery', 'Each player returns all creature cards from their graveyard to their hand.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>('Ethereal Usher', ['{5}{U}', 'Creature — Spirit', '{U}, {T}: Target creature can’t be blocked this turn.', 'Transmute {1}{U}{U} ({1}{U}{U}, Discard this card: Search your library for a card with the same converted mana cost as this card, reveal it, and put it into your hand. Then shuffle your library. Transmute only as a sorcery.)', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>('Excruciator', ['{6}{R}{R}', 'Creature — Avatar', 'Damage that would be dealt by Excruciator can’t be prevented.', '7/7'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>('Eye of the Storm', ['{5}{U}{U}', 'Enchantment', 'Whenever a player casts an instant or sorcery card, exile it. Then that player copies each instant or sorcery card exiled with Eye of the Storm. For each copy, the player may cast the copy without paying its mana cost.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>("Faith's Fetters", ['{3}{W}', 'Enchantment — Aura', 'Enchant permanent', 'When Faith’s Fetters enters the battlefield, you gain 4 life.', 'Enchanted permanent can’t attack or block, and its activated abilities can’t be activated unless they’re mana abilities.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>('Farseek', ['{1}{G}', 'Sorcery', 'Search your library for a Plains, Island, Swamp, or Mountain card and put it onto the battlefield tapped. Then shuffle your library.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>('Festival of the Guildpact', ['{X}{W}', 'Instant', 'Prevent the next X damage that would be dealt to you this turn.', 'Draw a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>('Fiery Conclusion', ['{1}{R}', 'Instant', 'As an additional cost to cast this spell, sacrifice a creature.', 'Fiery Conclusion deals 5 damage to target creature.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>('Firemane Angel', ['{3}{R}{W}{W}', 'Creature — Angel', 'Flying, first strike', 'At the beginning of your upkeep, if Firemane Angel is in your graveyard or on the battlefield, you may gain 1 life.', '{6}{R}{R}{W}{W}: Return Firemane Angel from your graveyard to the battlefield. Activate this ability only during your upkeep.', '4/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>('Fists of Ironwood', ['{1}{G}', 'Enchantment — Aura', 'Enchant creature', 'When Fists of Ironwood enters the battlefield, create two 1/1 green Saproling creature tokens.', 'Enchanted creature has trample.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>('Flame Fusillade', ['{3}{R}', 'Sorcery', 'Until end of turn, permanents you control gain “{T}: This permanent deals 1 damage to any target.”'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>('Flame-Kin Zealot', ['{1}{R}{R}{W}', 'Creature — Elemental Berserker', 'When Flame-Kin Zealot enters the battlefield, creatures you control get +1/+1 and gain haste until end of turn.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>('Flash Conscription', ['{5}{R}', 'Instant', 'Untap target creature and gain control of it until end of turn. That creature gains haste until end of turn. If {W} was spent to cast this spell, the creature gains “Whenever this creature deals combat damage, you gain that much life” until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>('Flickerform', ['{1}{W}', 'Enchantment — Aura', 'Enchant creature', '{2}{W}{W}: Exile enchanted creature and all Auras attached to it. At the beginning of the next end step, return that card to the battlefield under its owner’s control. If you do, return the other cards exiled this way to the battlefield under their owners’ control attached to that creature.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>('Flight of Fancy', ['{3}{U}', 'Enchantment — Aura', 'Enchant creature', 'When Flight of Fancy enters the battlefield, draw two cards.', 'Enchanted creature has flying.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>('Flow of Ideas', ['{5}{U}', 'Sorcery', 'Draw a card for each Island you control.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>('Followed Footsteps', ['{3}{U}{U}', 'Enchantment — Aura', 'Enchant creature', 'At the beginning of your upkeep, create a token that’s a copy of enchanted creature.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>('Forest', ['Basic Land — Forest', '({T}: Add {G}.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>('Frenzied Goblin', ['{R}', 'Creature — Goblin Berserker', 'Whenever Frenzied Goblin attacks, you may pay {R}. If you do, target creature can’t block this turn.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>('Galvanic Arc', ['{2}{R}', 'Enchantment — Aura', 'Enchant creature', 'When Galvanic Arc enters the battlefield, it deals 3 damage to any target.', 'Enchanted creature has first strike.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>('Gate Hound', ['{2}{W}', 'Creature — Dog', 'Creatures you control have vigilance as long as Gate Hound is enchanted.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>('Gather Courage', ['{G}', 'Instant', 'Convoke (Your creatures can help cast this spell. Each creature you tap while casting this spell pays for {1} or one mana of that creature’s color.)', 'Target creature gets +2/+2 until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>('Gaze of the Gorgon', ['{3}{B/G}', 'Instant', '({B/G} can be paid with either {B} or {G}.)', 'Regenerate target creature. At this turn’s next end of combat, destroy all creatures that blocked or were blocked by it this turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>('Ghosts of the Innocent', ['{5}{W}{W}', 'Creature — Spirit', 'If a source would deal damage to a permanent or player, it deals half that damage, rounded down, to that permanent or player instead.', '4/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>('Glare of Subdual', ['{2}{G}{W}', 'Enchantment', 'Tap an untapped creature you control: Tap target artifact or creature.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>('Glass Golem', ['{5}', 'Artifact Creature — Golem', '6/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>('Gleancrawler', ['{3}{B/G}{B/G}{B/G}', 'Creature — Insect Horror', '({B/G} can be paid with either {B} or {G}.)', 'Trample', 'At the beginning of your end step, return to your hand all creature cards in your graveyard that were put there from the battlefield this turn.', '6/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>('Glimpse the Unthinkable', ['{U}{B}', 'Sorcery', 'Target player mills ten cards.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>('Goblin Fire Fiend', ['{3}{R}', 'Creature — Goblin Berserker', 'Haste', 'Goblin Fire Fiend must be blocked if able.', '{R}: Goblin Fire Fiend gets +1/+0 until end of turn.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>('Goblin Spelunkers', ['{2}{R}', 'Creature — Goblin Warrior', 'Mountainwalk (This creature can’t be blocked as long as defending player controls a Mountain.)', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>('Golgari Brownscale', ['{1}{G}{G}', 'Creature — Lizard', 'When Golgari Brownscale is put into your hand from your graveyard, you gain 2 life.', 'Dredge 2 (If you would draw a card, you may mill two cards instead. If you do, return this card from your graveyard to your hand.)', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>('Golgari Germination', ['{1}{B}{G}', 'Enchantment', 'Whenever a nontoken creature you control dies, create a 1/1 green Saproling creature token.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>('Golgari Grave-Troll', ['{4}{G}', 'Creature — Troll Skeleton', 'Golgari Grave-Troll enters the battlefield with a +1/+1 counter on it for each creature card in your graveyard.', '{1}, Remove a +1/+1 counter from Golgari Grave-Troll: Regenerate Golgari Grave-Troll.', 'Dredge 6 (If you would draw a card, you may mill six cards instead. If you do, return this card from your graveyard to your hand.)', '0/0'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>('Golgari Guildmage', ['{B/G}{B/G}', 'Creature — Elf Shaman', '{4}{B}, Sacrifice a creature: Return target creature card from your graveyard to your hand.', '{4}{G}: Put a +1/+1 counter on target creature.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>('Golgari Rot Farm', ['Land', 'Golgari Rot Farm enters the battlefield tapped.', 'When Golgari Rot Farm enters the battlefield, return a land you control to its owner’s hand.', '{T}: Add {B}{G}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>('Golgari Rotwurm', ['{3}{B}{G}', 'Creature — Zombie Wurm', '{B}, Sacrifice a creature: Target player loses 1 life.', '5/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>('Golgari Signet', ['{2}', 'Artifact', '{1}, {T}: Add {B}{G}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>('Golgari Thug', ['{1}{B}', 'Creature — Human Warrior', 'When Golgari Thug dies, put target creature card from your graveyard on top of your library.', 'Dredge 4 (If you would draw a card, you may mill four cards instead. If you do, return this card from your graveyard to your hand.)', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>('Goliath Spider', ['{6}{G}{G}', 'Creature — Spider', 'Reach (This creature can block creatures with flying.)', '7/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>('Grave-Shell Scarab', ['{2}{B}{G}{G}', 'Creature — Insect', '{1}, Sacrifice Grave-Shell Scarab: Draw a card.', 'Dredge 1 (If you would draw a card, you may mill a card instead. If you do, return this card from your graveyard to your hand.)', '4/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>('Grayscaled Gharial', ['{U}', 'Creature — Crocodile', 'Islandwalk (This creature can’t be blocked as long as defending player controls an Island.)', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>('Greater Forgeling', ['{3}{R}{R}', 'Creature — Elemental', '{1}{R}: Greater Forgeling gets +3/-3 until end of turn.', '3/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>('Greater Mossdog', ['{3}{G}', 'Creature — Plant Dog', 'Dredge 3 (If you would draw a card, you may mill three cards instead. If you do, return this card from your graveyard to your hand.)', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>("Grifter's Blade", ['{3}', 'Artifact — Equipment', 'Flash', 'As Grifter’s Blade enters the battlefield, choose a creature you control it could be attached to. If you do, it enters the battlefield attached to that creature.', 'Equipped creature gets +1/+1.', 'Equip {1}'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>('Grozoth', ['{6}{U}{U}{U}', 'Creature — Leviathan', 'Defender (This creature can’t attack.)', 'When Grozoth enters the battlefield, you may search your library for any number of cards that have converted mana cost 9, reveal them, and put them into your hand. If you do, shuffle your library.', '{4}: Grozoth loses defender until end of turn.', 'Transmute {1}{U}{U} ({1}{U}{U}, Discard this card: Search your library for a card with the same converted mana cost as this card, reveal it, and put it into your hand. Then shuffle your library. Transmute only as a sorcery.)', '9/9'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>('Guardian of Vitu-Ghazi', ['{6}{G}{W}', 'Creature — Elemental', 'Convoke (Your creatures can help cast this spell. Each creature you tap while casting this spell pays for {1} or one mana of that creature’s color.)', 'Vigilance', '4/7'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>('Halcyon Glaze', ['{1}{U}{U}', 'Enchantment', 'Whenever you cast a creature spell, Halcyon Glaze becomes a 4/4 Illusion creature with flying in addition to its other types until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>('Hammerfist Giant', ['{4}{R}{R}', 'Creature — Giant Warrior', '{T}: Hammerfist Giant deals 4 damage to each creature without flying and each player.', '5/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>('Helldozer', ['{3}{B}{B}{B}', 'Creature — Zombie Giant', '{B}{B}{B}, {T}: Destroy target land. If that land was nonbasic, untap Helldozer.', '6/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>('Hex', ['{4}{B}{B}', 'Sorcery', 'Destroy six target creatures.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>('Hour of Reckoning', ['{4}{W}{W}{W}', 'Sorcery', 'Convoke (Your creatures can help cast this spell. Each creature you tap while casting this spell pays for {1} or one mana of that creature’s color.)', 'Destroy all nontoken creatures.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>('Hunted Dragon', ['{3}{R}{R}', 'Creature — Dragon', 'Flying, haste', 'When Hunted Dragon enters the battlefield, target opponent creates three 2/2 white Knight creature tokens with first strike.', '6/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>('Hunted Horror', ['{B}{B}', 'Creature — Horror', 'Trample', 'When Hunted Horror enters the battlefield, target opponent creates two 3/3 green Centaur creature tokens with protection from black.', '7/7'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>('Hunted Lammasu', ['{2}{W}{W}', 'Creature — Lammasu', 'Flying', 'When Hunted Lammasu enters the battlefield, target opponent creates a 4/4 black Horror creature token.', '5/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>('Hunted Phantasm', ['{1}{U}{U}', 'Creature — Spirit', 'Hunted Phantasm can’t be blocked.', 'When Hunted Phantasm enters the battlefield, target opponent creates five 1/1 red Goblin creature tokens.', '4/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>('Hunted Troll', ['{2}{G}{G}', 'Creature — Troll Warrior', 'When Hunted Troll enters the battlefield, target opponent creates four 1/1 blue Faerie creature tokens with flying.', '{G}: Regenerate Hunted Troll.', '8/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>('Incite Hysteria', ['{2}{R}', 'Sorcery', 'Radiance — Until end of turn, target creature and each other creature that shares a color with it gain “This creature can’t block.”'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>('Indentured Oaf', ['{3}{R}', 'Creature — Ogre Warrior', 'Prevent all damage that Indentured Oaf would deal to red creatures.', '4/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>('Induce Paranoia', ['{2}{U}{U}', 'Instant', 'Counter target spell. If {B} was spent to cast this spell, that spell’s controller mills X cards, where X is the spell’s converted mana cost.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>('Infectious Host', ['{2}{B}', 'Creature — Zombie', 'When Infectious Host dies, target player loses 2 life.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>('Instill Furor', ['{1}{R}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature has “At the beginning of your end step, sacrifice this creature unless it attacked this turn.”'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>('Island', ['Basic Land — Island', '({T}: Add {U}.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>('Ivy Dancer', ['{2}{G}', 'Creature — Dryad Shaman', '{T}: Target creature gains forestwalk until end of turn. (It can’t be blocked as long as defending player controls a Forest.)', '1/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>('Junktroller', ['{4}', 'Artifact Creature — Golem', 'Defender', '{T}: Put target card from a graveyard on the bottom of its owner’s library.', '0/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>('Keening Banshee', ['{2}{B}{B}', 'Creature — Spirit', 'Flying', 'When Keening Banshee enters the battlefield, target creature gets -2/-2 until end of turn.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>('Last Gasp', ['{1}{B}', 'Instant', 'Target creature gets -3/-3 until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>('Leashling', ['{6}', 'Artifact Creature — Dog', 'Put a card from your hand on top of your library: Return Leashling to its owner’s hand.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>('Leave No Trace', ['{1}{W}', 'Instant', 'Radiance — Destroy target enchantment and each other enchantment that shares a color with it.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>('Life from the Loam', ['{1}{G}', 'Sorcery', 'Return up to three target land cards from your graveyard to your hand.', 'Dredge 3 (If you would draw a card, you may mill three cards instead. If you do, return this card from your graveyard to your hand.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>('Lightning Helix', ['{R}{W}', 'Instant', 'Lightning Helix deals 3 damage to any target and you gain 3 life.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>('Light of Sanction', ['{1}{W}{W}', 'Enchantment', 'Prevent all damage that would be dealt to creatures you control by sources you control.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>('Lore Broker', ['{1}{U}', 'Creature — Human Rogue', '{T}: Each player draws a card, then discards a card.', '1/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>('Loxodon Gatekeeper', ['{2}{W}{W}', 'Creature — Elephant Soldier', 'Artifacts, creatures, and lands your opponents control enter the battlefield tapped.', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>('Loxodon Hierarch', ['{2}{G}{W}', 'Creature — Elephant Cleric', 'When Loxodon Hierarch enters the battlefield, you gain 4 life.', '{G}{W}, Sacrifice Loxodon Hierarch: Regenerate each creature you control.', '4/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>('Lurking Informant', ['{1}{U/B}', 'Creature — Human Rogue', '({U/B} can be paid with either {U} or {B}.)', '{2}, {T}: Look at the top card of target player’s library. You may put that card into that player’s graveyard.', '1/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>('Mark of Eviction', ['{U}', 'Enchantment — Aura', 'Enchant creature', 'At the beginning of your upkeep, return enchanted creature and all Auras attached to that creature to their owners’ hands.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>('Master Warcraft', ['{2}{R/W}{R/W}', 'Instant', 'Cast this spell only before attackers are declared.', 'You choose which creatures attack this turn.', 'You choose which creatures block this turn and how those creatures block.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>('Mausoleum Turnkey', ['{3}{B}', 'Creature — Ogre Rogue', 'When Mausoleum Turnkey enters the battlefield, return target creature card of an opponent’s choice from your graveyard to your hand.', '3/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>('Mindleech Mass', ['{5}{U}{B}{B}', 'Creature — Horror', 'Trample', 'Whenever Mindleech Mass deals combat damage to a player, you may look at that player’s hand. If you do, you may cast a spell from among those cards without paying its mana cost.', '6/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>('Mindmoil', ['{4}{R}', 'Enchantment', 'Whenever you cast a spell, put the cards in your hand on the bottom of your library in any order, then draw that many cards.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>('Mnemonic Nexus', ['{3}{U}', 'Instant', 'Each player shuffles their graveyard into their library.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>('Moldervine Cloak', ['{2}{G}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +3/+3.', 'Dredge 2 (If you would draw a card, you may mill two cards instead. If you do, return this card from your graveyard to your hand.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>('Molten Sentry', ['{3}{R}', 'Creature — Elemental', 'As Molten Sentry enters the battlefield, flip a coin. If the coin comes up heads, Molten Sentry enters the battlefield as a 5/2 creature with haste. If it comes up tails, Molten Sentry enters the battlefield as a 2/5 creature with defender.', '*/*'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>('Moonlight Bargain', ['{3}{B}{B}', 'Instant', 'Look at the top five cards of your library. For each card, put that card into your graveyard unless you pay 2 life. Then put the rest into your hand.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>('Moroii', ['{2}{U}{B}', 'Creature — Vampire', 'Flying', 'At the beginning of your upkeep, you lose 1 life.', '4/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>('Mortipede', ['{3}{B}', 'Creature — Insect', '{2}{G}: All creatures able to block Mortipede this turn do so.', '4/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>('Mountain', ['Basic Land — Mountain', '({T}: Add {R}.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>('Muddle the Mixture', ['{U}{U}', 'Instant', 'Counter target instant or sorcery spell.', 'Transmute {1}{U}{U} ({1}{U}{U}, Discard this card: Search your library for a card with the same converted mana cost as this card, reveal it, and put it into your hand. Then shuffle your library. Transmute only as a sorcery.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>('Necromantic Thirst', ['{2}{B}{B}', 'Enchantment — Aura', 'Enchant creature', 'Whenever enchanted creature deals combat damage to a player, you may return target creature card from your graveyard to your hand.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>('Necroplasm', ['{1}{B}{B}', 'Creature — Ooze', 'At the beginning of your upkeep, put a +1/+1 counter on Necroplasm.', 'At the beginning of your end step, destroy each creature with converted mana cost equal to the number of +1/+1 counters on Necroplasm.', 'Dredge 2 (If you would draw a card, you may mill two cards instead. If you do, return this card from your graveyard to your hand.)', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>('Netherborn Phalanx', ['{5}{B}', 'Creature — Horror', 'When Netherborn Phalanx enters the battlefield, each opponent loses 1 life for each creature they control.', 'Transmute {1}{B}{B} ({1}{B}{B}, Discard this card: Search your library for a card with the same converted mana cost as this card, reveal it, and put it into your hand. Then shuffle your library. Transmute only as a sorcery.)', '2/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>('Nightguard Patrol', ['{2}{W}', 'Creature — Human Soldier', 'First strike, vigilance', '2/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>('Nightmare Void', ['{3}{B}', 'Sorcery', 'Target player reveals their hand. You choose a card from it. That player discards that card.', 'Dredge 2 (If you would draw a card, you may mill two cards instead. If you do, return this card from your graveyard to your hand.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>('Nullmage Shepherd', ['{3}{G}', 'Creature — Elf Shaman', 'Tap four untapped creatures you control: Destroy target artifact or enchantment.', '2/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>('Nullstone Gargoyle', ['{9}', 'Artifact Creature — Gargoyle', 'Flying', 'Whenever the first noncreature spell of a turn is cast, counter that spell.', '4/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>('Oathsworn Giant', ['{4}{W}{W}', 'Creature — Giant Soldier', 'Vigilance', 'Other creatures you control get +0/+2 and have vigilance.', '3/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>('Ordruun Commando', ['{3}{R}', 'Creature — Minotaur Soldier', '{W}: Prevent the next 1 damage that would be dealt to Ordruun Commando this turn.', '4/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>('Overgrown Tomb', ['Land — Swamp Forest', '({T}: Add {B} or {G}.)', 'As Overgrown Tomb enters the battlefield, you may pay 2 life. If you don’t, it enters the battlefield tapped.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>('Overwhelm', ['{5}{G}{G}', 'Sorcery', 'Convoke (Your creatures can help cast this spell. Each creature you tap while casting this spell pays for {1} or one mana of that creature’s color.)', 'Creatures you control get +3/+3 until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>("Pariah's Shield", ['{5}', 'Artifact — Equipment', 'All damage that would be dealt to you is dealt to equipped creature instead.', 'Equip {3}'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>('Peel from Reality', ['{1}{U}', 'Instant', 'Return target creature you control and target creature you don’t control to their owners’ hands.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>('Peregrine Mask', ['{1}', 'Artifact — Equipment', 'Equipped creature has defender, flying, and first strike.', 'Equip {2}'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>('Perilous Forays', ['{3}{G}{G}', 'Enchantment', '{1}, Sacrifice a creature: Search your library for a land card with a basic land type and put it onto the battlefield tapped. Then shuffle your library.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>('Perplex', ['{1}{U}{B}', 'Instant', 'Counter target spell unless its controller discards their hand.', 'Transmute {1}{U}{B} ({1}{U}{B}, Discard this card: Search your library for a card with the same converted mana cost as this card, reveal it, and put it into your hand. Then shuffle your library. Transmute only as a sorcery.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>('Phytohydra', ['{2}{G}{W}{W}', 'Creature — Plant Hydra', 'If damage would be dealt to Phytohydra, put that many +1/+1 counters on it instead.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>('Plague Boiler', ['{3}', 'Artifact', 'At the beginning of your upkeep, put a plague counter on Plague Boiler.', '{1}{B}{G}: Put a plague counter on Plague Boiler or remove a plague counter from it.', 'When Plague Boiler has three or more plague counters on it, sacrifice it. If you do, destroy all nonland permanents.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>('Plains', ['Basic Land — Plains', '({T}: Add {W}.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>('Pollenbright Wings', ['{4}{G}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature has flying.', 'Whenever enchanted creature deals combat damage to a player, create that many 1/1 green Saproling creature tokens.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>('Primordial Sage', ['{4}{G}{G}', 'Creature — Spirit', 'Whenever you cast a creature spell, you may draw a card.', '4/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>('Privileged Position', ['{2}{G/W}{G/W}{G/W}', 'Enchantment', '({G/W} can be paid with either {G} or {W}.)', 'Other permanents you control have hexproof. (They can’t be the targets of spells or abilities your opponents control.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>('Psychic Drain', ['{X}{U}{B}', 'Sorcery', 'Target player mills X cards and you gain X life.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>('Putrefy', ['{1}{B}{G}', 'Instant', 'Destroy target artifact or creature. It can’t be regenerated.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>('Quickchange', ['{1}{U}', 'Instant', 'Target creature becomes the color or colors of your choice until end of turn.', 'Draw a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>('Rain of Embers', ['{1}{R}', 'Sorcery', 'Rain of Embers deals 1 damage to each creature and each player.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>('Rally the Righteous', ['{1}{R}{W}', 'Instant', 'Radiance — Untap target creature and each other creature that shares a color with it. Those creatures get +2/+0 until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>('Razia, Boros Archangel', ['{4}{R}{R}{W}{W}', 'Legendary Creature — Angel', 'Flying, vigilance, haste', '{T}: The next 3 damage that would be dealt to target creature you control this turn is dealt to another target creature instead.', '6/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>("Razia's Purification", ['{4}{R}{W}', 'Sorcery', 'Each player chooses three permanents they control, then sacrifices the rest.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>('Recollect', ['{2}{G}', 'Sorcery', 'Return target card from your graveyard to your hand.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>('Remand', ['{1}{U}', 'Instant', 'Counter target spell. If that spell is countered this way, put it into its owner’s hand instead of into that player’s graveyard.', 'Draw a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>('Reroute', ['{1}{R}', 'Instant', 'Change the target of target activated ability with a single target. (Mana abilities can’t be targeted.)', 'Draw a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>('Ribbons of Night', ['{4}{B}', 'Sorcery', 'Ribbons of Night deals 4 damage to target creature and you gain 4 life. If {U} was spent to cast this spell, draw a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>('Rolling Spoil', ['{2}{G}{G}', 'Sorcery', 'Destroy target land. If {B} was spent to cast this spell, all creatures get -1/-1 until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>('Roofstalker Wight', ['{1}{B}', 'Creature — Zombie', '{1}{U}: Roofstalker Wight gains flying until end of turn.', '2/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>('Root-Kin Ally', ['{4}{G}{G}', 'Creature — Elemental Warrior', 'Convoke (Your creatures can help cast this spell. Each creature you tap while casting this spell pays for {1} or one mana of that creature’s color.)', 'Tap two untapped creatures you control: Root-Kin Ally gets +2/+2 until end of turn.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>('Sabertooth Alley Cat', ['{1}{R}{R}', 'Creature — Cat', 'Sabertooth Alley Cat attacks each combat if able.', '{1}{R}: Creatures without defender can’t block Sabertooth Alley Cat this turn.', '2/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>('Sacred Foundry', ['Land — Mountain Plains', '({T}: Add {R} or {W}.)', 'As Sacred Foundry enters the battlefield, you may pay 2 life. If you don’t, it enters the battlefield tapped.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>('Sadistic Augermage', ['{2}{B}', 'Creature — Human Wizard', 'When Sadistic Augermage dies, each player puts a card from their hand on top of their library.', '3/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>('Sandsower', ['{3}{W}', 'Creature — Spirit', 'Tap three untapped creatures you control: Tap target creature.', '1/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>('Savra, Queen of the Golgari', ['{2}{B}{G}', 'Legendary Creature — Elf Shaman', 'Whenever you sacrifice a black creature, you may pay 2 life. If you do, each other player sacrifices a creature.', 'Whenever you sacrifice a green creature, you may gain 2 life.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>('Scatter the Seeds', ['{3}{G}{G}', 'Instant', 'Convoke (Your creatures can help cast this spell. Each creature you tap while casting this spell pays for {1} or one mana of that creature’s color.)', 'Create three 1/1 green Saproling creature tokens.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>('Scion of the Wild', ['{1}{G}{G}', 'Creature — Avatar', 'Scion of the Wild’s power and toughness are each equal to the number of creatures you control.', '*/*'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>('Screeching Griffin', ['{3}{W}', 'Creature — Griffin', 'Flying', '{R}: Target creature can’t block Screeching Griffin this turn.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>('Searing Meditation', ['{1}{R}{W}', 'Enchantment', 'Whenever you gain life, you may pay {2}. If you do, Searing Meditation deals 2 damage to any target.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>('Seeds of Strength', ['{G}{W}', 'Instant', 'Target creature gets +1/+1 until end of turn.', 'Target creature gets +1/+1 until end of turn.', 'Target creature gets +1/+1 until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>('Seed Spark', ['{3}{W}', 'Instant', 'Destroy target artifact or enchantment. If {G} was spent to cast this spell, create two 1/1 green Saproling creature tokens.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>('Seismic Spike', ['{2}{R}{R}', 'Sorcery', 'Destroy target land. Add {R}{R}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>('Selesnya Evangel', ['{G}{W}', 'Creature — Elf Shaman', '{1}, {T}, Tap an untapped creature you control: Create a 1/1 green Saproling creature token.', '1/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>('Selesnya Guildmage', ['{G/W}{G/W}', 'Creature — Elf Wizard', '{3}{G}: Create a 1/1 green Saproling creature token.', '{3}{W}: Creatures you control get +1/+1 until end of turn.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>('Selesnya Sagittars', ['{3}{G}{W}', 'Creature — Elf Archer', 'Reach (This creature can block creatures with flying.)', 'Selesnya Sagittars can block an additional creature each combat.', '2/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>('Selesnya Sanctuary', ['Land', 'Selesnya Sanctuary enters the battlefield tapped.', 'When Selesnya Sanctuary enters the battlefield, return a land you control to its owner’s hand.', '{T}: Add {G}{W}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>('Selesnya Signet', ['{2}', 'Artifact', '{1}, {T}: Add {G}{W}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>('Sell-Sword Brute', ['{1}{R}', 'Creature — Human Mercenary', 'When Sell-Sword Brute dies, it deals 2 damage to you.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>('Sewerdreg', ['{3}{B}{B}', 'Creature — Spirit', 'Swampwalk (This creature can’t be blocked as long as defending player controls a Swamp.)', 'Sacrifice Sewerdreg: Exile target card from a graveyard.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>('Shadow of Doubt', ['{U/B}{U/B}', 'Instant', '({U/B} can be paid with either {U} or {B}.)', 'Players can’t search libraries this turn.', 'Draw a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>('Shambling Shell', ['{1}{B}{G}', 'Creature — Plant Zombie', 'Sacrifice Shambling Shell: Put a +1/+1 counter on target creature.', 'Dredge 3 (If you would draw a card, you may mill three cards instead. If you do, return this card from your graveyard to your hand.)', '3/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>('Shred Memory', ['{1}{B}', 'Instant', 'Exile up to four target cards from a single graveyard.', 'Transmute {1}{B}{B} ({1}{B}{B}, Discard this card: Search your library for a card with the same converted mana cost as this card, reveal it, and put it into your hand. Then shuffle your library. Transmute only as a sorcery.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>('Siege Wurm', ['{5}{G}{G}', 'Creature — Wurm', 'Convoke (Your creatures can help cast this spell. Each creature you tap while casting this spell pays for {1} or one mana of that creature’s color.)', 'Trample', '5/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>('Sins of the Past', ['{4}{B}{B}', 'Sorcery', 'Until end of turn, you may cast target instant or sorcery card from your graveyard without paying its mana cost. If that spell would be put into your graveyard this turn, exile it instead. Exile Sins of the Past.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>('Sisters of Stone Death', ['{4}{B}{B}{G}{G}', 'Legendary Creature — Gorgon', '{G}: Target creature blocks Sisters of Stone Death this turn if able.', '{B}{G}: Exile target creature blocking or blocked by Sisters of Stone Death.', '{2}{B}: Put a creature card exiled with Sisters of Stone Death onto the battlefield under your control.', '7/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>('Skyknight Legionnaire', ['{1}{R}{W}', 'Creature — Human Knight', 'Flying, haste', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>('Smash', ['{2}{R}', 'Instant', 'Destroy target artifact.', 'Draw a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>('Snapping Drake', ['{3}{U}', 'Creature — Drake', 'Flying (This creature can’t be blocked except by creatures with flying or reach.)', '3/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>('Sparkmage Apprentice', ['{1}{R}', 'Creature — Human Wizard', 'When Sparkmage Apprentice enters the battlefield, it deals 1 damage to any target.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>('Spawnbroker', ['{2}{U}', 'Creature — Human Wizard', 'When Spawnbroker enters the battlefield, you may exchange control of target creature you control and target creature with power less than or equal to that creature’s power an opponent controls.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>('Spectral Searchlight', ['{3}', 'Artifact', '{T}: Choose a player. That player adds one mana of any color they choose.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>('Stasis Cell', ['{4}{U}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature doesn’t untap during its controller’s untap step.', '{3}{U}: Attach Stasis Cell to target creature.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>('Stinkweed Imp', ['{2}{B}', 'Creature — Imp', 'Flying', 'Whenever Stinkweed Imp deals combat damage to a creature, destroy that creature.', 'Dredge 5 (If you would draw a card, you may mill five cards instead. If you do, return this card from your graveyard to your hand.)', '1/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>('Stone-Seeder Hierophant', ['{2}{G}{G}', 'Creature — Human Druid', 'Whenever a land enters the battlefield under your control, untap Stone-Seeder Hierophant.', '{T}: Untap target land.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>('Stoneshaker Shaman', ['{2}{R}', 'Creature — Human Shaman', 'At the beginning of each player’s end step, that player sacrifices an untapped land.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>('Strands of Undeath', ['{3}{B}', 'Enchantment — Aura', 'Enchant creature', 'When Strands of Undeath enters the battlefield, target player discards two cards.', '{B}: Regenerate enchanted creature.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>('Sundering Vitae', ['{2}{G}', 'Instant', 'Convoke (Your creatures can help cast this spell. Each creature you tap while casting this spell pays for {1} or one mana of that creature’s color.)', 'Destroy target artifact or enchantment.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>('Sunforger', ['{3}', 'Artifact — Equipment', 'Equipped creature gets +4/+0.', '{R}{W}, Unattach Sunforger: Search your library for a red or white instant card with converted mana cost 4 or less and cast that card without paying its mana cost. Then shuffle your library.', 'Equip {3}'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>('Sunhome Enforcer', ['{2}{R}{W}', 'Creature — Giant Soldier', 'Whenever Sunhome Enforcer deals combat damage, you gain that much life.', '{1}{R}: Sunhome Enforcer gets +1/+0 until end of turn.', '2/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>('Sunhome, Fortress of the Legion', ['Land', '{T}: Add {C}.', '{2}{R}{W}, {T}: Target creature gains double strike until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>('Suppression Field', ['{1}{W}', 'Enchantment', 'Activated abilities cost {2} more to activate unless they’re mana abilities.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>('Surge of Zeal', ['{R}', 'Instant', 'Radiance — Target creature and each other creature that shares a color with it gain haste until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>('Surveilling Sprite', ['{1}{U}', 'Creature — Faerie Rogue', 'Flying', 'When Surveilling Sprite dies, you may draw a card.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>('Svogthos, the Restless Tomb', ['Land', '{T}: Add {C}.', '{3}{B}{G}: Until end of turn, Svogthos, the Restless Tomb becomes a black and green Plant Zombie creature with “This creature’s power and toughness are each equal to the number of creature cards in your graveyard.” It’s still a land.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>('Swamp', ['Basic Land — Swamp', '({T}: Add {B}.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>('Szadek, Lord of Secrets', ['{3}{U}{U}{B}{B}', 'Legendary Creature — Vampire', 'Flying', 'If Szadek, Lord of Secrets would deal combat damage to a player, instead put that many +1/+1 counters on Szadek and that player mills that many cards.', '5/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>('Tattered Drake', ['{4}{U}', 'Creature — Zombie Drake', 'Flying', '{B}: Regenerate Tattered Drake.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>('Telling Time', ['{1}{U}', 'Instant', 'Look at the top three cards of your library. Put one of those cards into your hand, one on top of your library, and one on the bottom of your library.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>('Temple Garden', ['Land — Forest Plains', '({T}: Add {G} or {W}.)', 'As Temple Garden enters the battlefield, you may pay 2 life. If you don’t, it enters the battlefield tapped.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>('Terraformer', ['{2}{U}', 'Creature — Human Wizard', '{1}: Choose a basic land type. Each land you control becomes that type until end of turn.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>('Terrarion', ['{1}', 'Artifact', 'Terrarion enters the battlefield tapped.', '{2}, {T}, Sacrifice Terrarion: Add two mana in any combination of colors.', 'When Terrarion is put into a graveyard from the battlefield, draw a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>('Thoughtpicker Witch', ['{B}', 'Creature — Human Wizard', '{1}, Sacrifice a creature: Look at the top two cards of target opponent’s library, then exile one of them.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>('Three Dreams', ['{4}{W}', 'Sorcery', 'Search your library for up to three Aura cards with different names, reveal them, and put them into your hand. Then shuffle your library.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>('Thundersong Trumpeter', ['{R}{W}', 'Creature — Human Soldier', '{T}: Target creature can’t attack or block this turn.', '2/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>('Tidewater Minion', ['{3}{U}{U}', 'Creature — Elemental Minion', 'Defender (This creature can’t attack.)', '{4}: Tidewater Minion loses defender until end of turn.', '{T}: Untap target permanent.', '4/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>('Tolsimir Wolfblood', ['{4}{G}{W}', 'Legendary Creature — Elf Warrior', 'Other green creatures you control get +1/+1.', 'Other white creatures you control get +1/+1.', '{T}: Create Voja, a legendary 2/2 green and white Wolf creature token.', '3/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>('Torpid Moloch', ['{R}', 'Creature — Lizard', 'Defender (This creature can’t attack.)', 'Sacrifice three lands: Torpid Moloch loses defender until end of turn.', '3/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>('Transluminant', ['{1}{G}', 'Creature — Dryad Shaman', '{W}, Sacrifice Transluminant: Create a 1/1 white Spirit creature token with flying at the beginning of the next end step.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>('Trophy Hunter', ['{2}{G}', 'Creature — Human Archer', '{1}{G}: Trophy Hunter deals 1 damage to target creature with flying.', 'Whenever a creature with flying dealt damage by Trophy Hunter this turn dies, put a +1/+1 counter on Trophy Hunter.', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>('Tunnel Vision', ['{5}{U}', 'Sorcery', 'Choose a card name. Target player reveals cards from the top of their library until a card with that name is revealed. If it is, that player puts the rest of the revealed cards into their graveyard and puts the card with the chosen name on top of their library. Otherwise, the player shuffles their library.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>('Twilight Drover', ['{2}{W}', 'Creature — Spirit', 'Whenever a creature token leaves the battlefield, put a +1/+1 counter on Twilight Drover.', '{2}{W}, Remove a +1/+1 counter from Twilight Drover: Create two 1/1 white Spirit creature tokens with flying.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>('Twisted Justice', ['{4}{U}{B}', 'Sorcery', 'Target player sacrifices a creature. You draw cards equal to that creature’s power.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>('Undercity Shade', ['{4}{B}', 'Creature — Shade', 'Fear (This creature can’t be blocked except by artifact creatures and/or black creatures.)', '{B}: Undercity Shade gets +1/+1 until end of turn.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>('Ursapine', ['{3}{G}{G}', 'Creature — Beast', '{G}: Target creature gets +1/+1 until end of turn.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>('Vedalken Dismisser', ['{5}{U}', 'Creature — Vedalken Wizard', 'When Vedalken Dismisser enters the battlefield, put target creature on top of its owner’s library.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>('Vedalken Entrancer', ['{3}{U}', 'Creature — Vedalken Wizard', '{U}, {T}: Target player mills two cards.', '1/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>('Veteran Armorer', ['{1}{W}', 'Creature — Human Soldier', 'Other creatures you control get +0/+1.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>('Viashino Fangtail', ['{2}{R}{R}', 'Creature — Viashino Warrior', '{T}: Viashino Fangtail deals 1 damage to any target.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>('Viashino Slasher', ['{1}{R}', 'Creature — Viashino Warrior', '{R}: Viashino Slasher gets +1/-1 until end of turn.', '1/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>('Vigor Mortis', ['{2}{B}{B}', 'Sorcery', 'Return target creature card from your graveyard to the battlefield. If {G} was spent to cast this spell, that creature enters the battlefield with an additional +1/+1 counter on it.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>('Vindictive Mob', ['{4}{B}{B}', 'Creature — Human Berserker', 'When Vindictive Mob enters the battlefield, sacrifice a creature.', 'Vindictive Mob can’t be blocked by Saprolings.', '5/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>('Vinelasher Kudzu', ['{1}{G}', 'Creature — Plant', 'Whenever a land enters the battlefield under your control, put a +1/+1 counter on Vinelasher Kudzu.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>('Vitu-Ghazi, the City-Tree', ['Land', '{T}: Add {C}.', '{2}{G}{W}, {T}: Create a 1/1 green Saproling creature token.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>('Votary of the Conclave', ['{W}', 'Creature — Human Soldier', '{2}{G}: Regenerate Votary of the Conclave.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>('Voyager Staff', ['{1}', 'Artifact', '{2}, Sacrifice Voyager Staff: Exile target creature. Return the exiled card to the battlefield under its owner’s control at the beginning of the next end step.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>('Vulturous Zombie', ['{3}{B}{G}', 'Creature — Plant Zombie', 'Flying', 'Whenever a card is put into an opponent’s graveyard from anywhere, put a +1/+1 counter on Vulturous Zombie.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>('Warp World', ['{5}{R}{R}{R}', 'Sorcery', 'Each player shuffles all permanents they own into their library, then reveals that many cards from the top of their library. Each player puts all artifact, creature, and land cards revealed this way onto the battlefield, then does the same for enchantment cards, then puts all cards revealed this way that weren’t put onto the battlefield on the bottom of their library.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>('War-Torch Goblin', ['{R}', 'Creature — Goblin Warrior', '{R}, Sacrifice War-Torch Goblin: It deals 2 damage to target blocking creature.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>('Watchwolf', ['{G}{W}', 'Creature — Wolf', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>('Watery Grave', ['Land — Island Swamp', '({T}: Add {U} or {B}.)', 'As Watery Grave enters the battlefield, you may pay 2 life. If you don’t, it enters the battlefield tapped.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>('Wizened Snitches', ['{3}{U}', 'Creature — Faerie Rogue', 'Flying', 'Players play with the top card of their libraries revealed.', '1/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>('Woebringer Demon', ['{3}{B}{B}', 'Creature — Demon', 'Flying', 'At the beginning of each player’s upkeep, that player sacrifices a creature. If the player can’t, sacrifice Woebringer Demon.', '4/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>('Wojek Apothecary', ['{2}{W}{W}', 'Creature — Human Cleric', 'Radiance — {T}: Prevent the next 1 damage that would be dealt to target creature and each other creature that shares a color with it this turn.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>('Wojek Embermage', ['{3}{R}', 'Creature — Human Wizard', 'Radiance — {T}: Wojek Embermage deals 1 damage to target creature and each other creature that shares a color with it.', '1/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>('Wojek Siren', ['{W}', 'Instant', 'Radiance — Target creature and each other creature that shares a color with it get +1/+1 until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>('Woodwraith Corrupter', ['{3}{B}{B}{G}', 'Creature — Elemental Horror', '{1}{B}{G}, {T}: Target Forest becomes a 4/4 black and green Elemental Horror creature. It’s still a land.', '3/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>('Woodwraith Strangler', ['{2}{B}{G}', 'Creature — Plant Zombie', 'Exile a creature card from your graveyard: Regenerate Woodwraith Strangler.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>('Zephyr Spirit', ['{5}{U}', 'Creature — Spirit', 'When Zephyr Spirit blocks, return it to its owner’s hand.', '0/6'])</t>
         </is>
       </c>
     </row>
